--- a/ExcelData/TC_Leave.xlsx
+++ b/ExcelData/TC_Leave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="10560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>leaveTypeName</t>
   </si>
@@ -37,38 +37,32 @@
     <t>reason</t>
   </si>
   <si>
-    <t>Sick Leave</t>
+    <t>Casual Leave</t>
   </si>
   <si>
     <t>Full day</t>
   </si>
   <si>
-    <t>18 August 2023</t>
-  </si>
-  <si>
-    <t>30 August 2023</t>
-  </si>
-  <si>
     <t>time pass</t>
+  </si>
+  <si>
+    <t>28-August-2023</t>
+  </si>
+  <si>
+    <t>30-August-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,14 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,18 +368,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -410,38 +400,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelData/TC_Leave.xlsx
+++ b/ExcelData/TC_Leave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>leaveTypeName</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>30-August-2023</t>
+  </si>
+  <si>
+    <t>orgName</t>
+  </si>
+  <si>
+    <t>Westwood</t>
   </si>
 </sst>
 </file>
@@ -368,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,7 +389,7 @@
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +405,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -415,6 +424,9 @@
       </c>
       <c r="E2" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
